--- a/target/classes/input_Excell/SAmple.xlsx
+++ b/target/classes/input_Excell/SAmple.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20280" windowHeight="5505"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20295" windowHeight="5130" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="testData" sheetId="1" r:id="rId1"/>
+    <sheet name="testData1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N10"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>suresh</t>
   </si>
@@ -83,6 +84,33 @@
   </si>
   <si>
     <t>1/4/1990</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -135,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +176,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,6 +473,88 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -524,346 +635,6 @@
         <v>80000</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>50000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>60000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>60000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>80000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>50000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>60000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>60000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>80000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>50000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>60000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>60000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>80000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>50000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>60000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>60000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>80000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>50000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>60000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>60000</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>80000</v>
-      </c>
-      <c r="E25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -872,23 +643,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId19"/>
 </worksheet>
 </file>
--- a/target/classes/input_Excell/SAmple.xlsx
+++ b/target/classes/input_Excell/SAmple.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20295" windowHeight="5130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="5505"/>
   </bookViews>
   <sheets>
-    <sheet name="testData1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N10"/>
+  <oleSize ref="A1:I11"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>suresh</t>
   </si>
@@ -84,33 +83,6 @@
   </si>
   <si>
     <t>1/4/1990</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -163,20 +135,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,100 +418,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -577,7 +458,7 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2">
@@ -594,7 +475,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D3">
@@ -611,7 +492,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4">
@@ -628,7 +509,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5">
